--- a/data/processed/vignettes20_triage_prediction_agg_dichotomized.xlsx
+++ b/data/processed/vignettes20_triage_prediction_agg_dichotomized.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7775052071757333</v>
+        <v>0.7580076270745105</v>
       </c>
     </row>
     <row r="3">
@@ -538,7 +538,7 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5270037423727414</v>
+        <v>0.3815042693844805</v>
       </c>
     </row>
     <row r="4">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4487739721404817</v>
+        <v>0.5000162689902918</v>
       </c>
     </row>
     <row r="5">
@@ -602,60 +602,60 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5569058923484159</v>
+        <v>0.5164921830047519</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Chest pain for 1 day.</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>64-year-old male; Pain is in middle of chest under breast bone; Sweating and having trouble breathing.</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3335781608561428</v>
+        <v>0.4102009530367572</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
-      <c r="D7" s="1" t="n"/>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Chest pain for 1 day.</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>64-year-old male; Pain is in middle of chest under breast bone; Sweating and having trouble breathing.</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
           <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>0.379275665626393</v>
+        <v>0.7762009665746792</v>
       </c>
     </row>
     <row r="8">
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4043133669188699</v>
+        <v>0.2879020963987001</v>
       </c>
     </row>
     <row r="9">
@@ -705,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4461082249887934</v>
+        <v>0.4337188429658881</v>
       </c>
     </row>
     <row r="10">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4164549335531818</v>
+        <v>0.4936634740180539</v>
       </c>
     </row>
     <row r="11">
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3438395914655029</v>
+        <v>0.394642964963816</v>
       </c>
     </row>
     <row r="12">
@@ -785,10 +785,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4268474066613638</v>
+        <v>0.3949638812006547</v>
       </c>
     </row>
     <row r="13">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5048555456422548</v>
+        <v>0.4788082868928479</v>
       </c>
     </row>
     <row r="14">
@@ -838,7 +838,7 @@
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3773177217112138</v>
+        <v>0.5236708145010497</v>
       </c>
     </row>
     <row r="15">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3258186779372414</v>
+        <v>0.2740266570013977</v>
       </c>
     </row>
     <row r="16">
@@ -888,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>0.535731109638803</v>
+        <v>0.474962421629355</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6480199073753165</v>
+        <v>0.638399133100143</v>
       </c>
     </row>
     <row r="18">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4504224155759448</v>
+        <v>0.4121134769772234</v>
       </c>
     </row>
     <row r="19">
@@ -971,7 +971,7 @@
         <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4835975145677969</v>
+        <v>0.3482904428216729</v>
       </c>
     </row>
     <row r="20">
@@ -988,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4257836880699672</v>
+        <v>0.5541080956331033</v>
       </c>
     </row>
     <row r="21">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4850476551781017</v>
+        <v>0.4896774040990868</v>
       </c>
     </row>
     <row r="22">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5529047242402811</v>
+        <v>0.5704210471539286</v>
       </c>
     </row>
     <row r="23">
@@ -1071,7 +1071,7 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6911935569901709</v>
+        <v>0.6383119588063664</v>
       </c>
     </row>
     <row r="24">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
@@ -1101,10 +1101,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6000160050362326</v>
+        <v>0.6150877025477568</v>
       </c>
     </row>
     <row r="25">
@@ -1118,10 +1118,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5335443773376334</v>
+        <v>0.5879773352100301</v>
       </c>
     </row>
     <row r="26">
@@ -1154,7 +1154,7 @@
         <v>9</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5662983427678397</v>
+        <v>0.5623018373790112</v>
       </c>
     </row>
     <row r="27">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3921567902628831</v>
+        <v>0.5090152670892498</v>
       </c>
     </row>
     <row r="28">
@@ -1197,114 +1197,114 @@
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5537387794106072</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Headache for 3 days.</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>18-year-old male; Has fever 102; Neck stiff; Light bothers him.</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.4527588400859487</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.4279004159092213</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Itchy rash on left hand for 1 day.</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>12-year-old male; Came on hours after playing in woods; Rash red and warm; No fever.</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
         <v>4</v>
       </c>
-      <c r="G28" t="n">
-        <v>0.4978439924217481</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="n"/>
-      <c r="D29" s="1" t="n"/>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+      <c r="G31" t="n">
+        <v>0.5423958831471319</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="n"/>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
         <v>6</v>
       </c>
-      <c r="G29" t="n">
-        <v>0.4366564158219323</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Headache for 3 days.</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>18-year-old male; Has fever 102; Neck stiff; Light bothers him.</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="E30" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.5549217536776745</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="n"/>
-      <c r="D31" s="1" t="n"/>
-      <c r="E31" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>8</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.431019508560685</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Itchy rash on left hand for 1 day.</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>12-year-old male; Came on hours after playing in woods; Rash red and warm; No fever.</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="E32" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>10</v>
-      </c>
       <c r="G32" t="n">
-        <v>0.5111430997451059</v>
+        <v>0.6314309414291884</v>
       </c>
     </row>
     <row r="33">
@@ -1337,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7247867504272371</v>
+        <v>0.7127945270341788</v>
       </c>
     </row>
     <row r="34">
@@ -1363,114 +1363,114 @@
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3202601864194951</v>
+        <v>0.7384428142999222</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="n"/>
-      <c r="C35" s="1" t="n"/>
-      <c r="D35" s="1" t="n"/>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Mouth sores that come back over several years.</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>17-year-old male; Has 5 of them in his mouth; No other sores anywhere else; Takes no drugs or medicines.</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4722779440014995</v>
+        <v>0.5460140529094435</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Mouth sores that come back over several years.</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>17-year-old male; Has 5 of them in his mouth; No other sores anywhere else; Takes no drugs or medicines.</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="n"/>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3824657825764592</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Pain on right side of chest for 5 days.</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>77-year-old male; Pain was first and was then followed by rash in same area as pain; Feels unwell in general; Rash becomes clear pockets of fluid on top of skin after 3 days.</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
         <v>4</v>
       </c>
-      <c r="G36" t="n">
-        <v>0.4484836609220433</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="n"/>
-      <c r="D37" s="1" t="n"/>
-      <c r="E37" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
+        <v>0.3857600394445489</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
+      <c r="D38" s="1" t="n"/>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
         <v>6</v>
       </c>
-      <c r="G37" t="n">
-        <v>0.3814792455775607</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Pain on right side of chest for 5 days.</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>77-year-old male; Pain was first and was then followed by rash in same area as pain; Feels unwell in general; Rash becomes clear pockets of fluid on top of skin after 3 days.</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="E38" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>10</v>
-      </c>
       <c r="G38" t="n">
-        <v>0.4619101478129883</v>
+        <v>0.496193017814724</v>
       </c>
     </row>
     <row r="39">
@@ -1496,42 +1496,58 @@
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>0.504968866804141</v>
+        <v>0.6109300864320387</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="n"/>
-      <c r="D40" s="1" t="n"/>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Painful swollen right eyelid for 1 day.</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>30-year-old male; Pain is at edge of eyelid; Hurts to touch it; No change in vision.</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
           <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5082532046233349</v>
+        <v>0.6274842312916584</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Painful swollen right eyelid for 1 day.</t>
+          <t>Painful urination for 2 days.</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>30-year-old male; Pain is at edge of eyelid; Hurts to touch it; No change in vision.</t>
+          <t>26-year-old female; Has urgent need to pee; Recent sexual activity; No fever, but some back pain; .</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
@@ -1541,130 +1557,130 @@
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5755492865567969</v>
+        <v>0.4683114110755373</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>Painful urination for 2 days.</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>26-year-old female; Has urgent need to pee; Recent sexual activity; No fever, but some back pain; .</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="n"/>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.4728756249187478</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Red bumps on forehead for 4 weeks.</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>17-year-old male; Bumps come and go and then come in new places on face.</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="E42" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>7</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.4984809771322377</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n"/>
-      <c r="D43" s="1" t="n"/>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4498049926824761</v>
+        <v>0.3598015287349306</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Red bumps on forehead for 4 weeks.</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>17-year-old male; Bumps come and go and then come in new places on face.</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="n"/>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F44" t="n">
         <v>8</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3556011857743131</v>
+        <v>0.402856121618987</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="n"/>
-      <c r="D45" s="1" t="n"/>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Red, irritated eye for 3 days.</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>14-year-old male; Spread from right to left; Has watery eye discharge, but no pain; Has a stuffy nose.</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
           <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3156264668494093</v>
+        <v>0.5862293940361207</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Red, irritated eye for 3 days.</t>
+          <t>Right leg pain for 2 days.</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>14-year-old male; Spread from right to left; Has watery eye discharge, but no pain; Has a stuffy nose.</t>
+          <t>65-year-old female; Right leg is swollen, red, and painful; Was in hospital last week for pneumonia; Has mild heart disease.</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr">
@@ -1674,7 +1690,7 @@
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
@@ -1683,10 +1699,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4508716644619651</v>
+        <v>0.5671067277648096</v>
       </c>
     </row>
     <row r="47">
@@ -1700,221 +1716,253 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4995167476750215</v>
+        <v>0.4759882333939457</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Right leg pain for 2 days.</t>
+          <t>Right-sided weakness and difficulty speaking for 10 minutes.</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>65-year-old female; Right leg is swollen, red, and painful; Was in hospital last week for pneumonia; Has mild heart disease.</t>
+          <t>70-year-old male; Can't use his right arm; Has high blood pressure and abnormal heart rhythm; Has nausea and vomiting.</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.8626213453058705</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Runny nose for 12 days.</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>34-year-old female; No fever; Had also had a sore throat and cough; No other medical problems.</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>6</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.5939419106322285</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="n"/>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.5710760485470909</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Sore throat for 2 days.</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>26-year-old male; Has a headache; Has a cough; No fever.</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>8</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.5656568959207968</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="n"/>
-      <c r="C49" s="1" t="n"/>
-      <c r="D49" s="1" t="n"/>
-      <c r="E49" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
         <v>2</v>
       </c>
-      <c r="G49" t="n">
-        <v>0.5140351916097796</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>Right-sided weakness and difficulty speaking for 10 minutes.</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>70-year-old male; Can't use his right arm; Has high blood pressure and abnormal heart rhythm; Has nausea and vomiting.</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="E50" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.4300390424589979</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n"/>
-      <c r="C51" s="1" t="n"/>
-      <c r="D51" s="1" t="n"/>
-      <c r="E51" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>9</v>
-      </c>
       <c r="G51" t="n">
-        <v>0.5847098794726537</v>
+        <v>0.4372276683876214</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Runny nose for 12 days.</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>34-year-old female; No fever; Had also had a sore throat and cough; No other medical problems.</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" s="1" t="n"/>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F52" t="n">
         <v>8</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5532340807874224</v>
+        <v>0.6430374822565895</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="n"/>
-      <c r="D53" s="1" t="n"/>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Sudden episodes of dizziness for 1 month.</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>65-year-old female; Triggered by tilting her head back to look up; Each attack lasts about 30 seconds; No hearing problems or weakness.</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4661031204767326</v>
+        <v>0.6726463890388618</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Sore throat for 2 days.</t>
+          <t>Sudden severe abdominal pain.</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>26-year-old male; Has a headache; Has a cough; No fever.</t>
+          <t>12-year-old female; Temperature 104 F (40 C); Has nausea, vomiting, and diarrhea.</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>10</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9066001325464063</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Swollen and tender forehead at site of bee sting for 1 hour.</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>9-year-old male; Stopped crying after 15 minutes; Tongue looks normal; No wheezing or breathing problems.</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D54" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="E54" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>3</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.5499183052593652</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="n"/>
-      <c r="D55" s="1" t="n"/>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
           <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5193151358018692</v>
+        <v>0.6734699483680924</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Sudden episodes of dizziness for 1 month.</t>
+          <t>Thirsty and peeing a lot for 4 weeks.</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>65-year-old female; Triggered by tilting her head back to look up; Each attack lasts about 30 seconds; No hearing problems or weakness.</t>
+          <t>52-year-old male; Feels tired all the time; Has blurry vision on and off.</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr">
@@ -1936,18 +1984,18 @@
         <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>0.6555902171906534</v>
+        <v>0.5767399415904715</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Sudden severe abdominal pain.</t>
+          <t>Tired for 2 months.</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>12-year-old female; Temperature 104 F (40 C); Has nausea, vomiting, and diarrhea.</t>
+          <t>39-year-old female; Has dry skin, weight gain, and constipation; Feels very cold when others are hot.</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
@@ -1957,63 +2005,43 @@
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5805716344515438</v>
+        <v>0.5736753027122087</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Swollen and tender forehead at site of bee sting for 1 hour.</t>
-        </is>
-      </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>9-year-old male; Stopped crying after 15 minutes; Tongue looks normal; No wheezing or breathing problems.</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n"/>
+      <c r="D58" s="1" t="n"/>
       <c r="E58" s="1" t="inlineStr">
         <is>
           <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7312169171333419</v>
+        <v>0.3871165672274873</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Thirsty and peeing a lot for 4 weeks.</t>
-        </is>
-      </c>
+      <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>52-year-old male; Feels tired all the time; Has blurry vision on and off.</t>
+          <t>42-year-old female; Overweight; Falls asleep during the day ; Partner complains about snoring at night.</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr">
@@ -2035,28 +2063,28 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4768119184992934</v>
+        <v>0.5779356764064599</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Tired for 2 months.</t>
+          <t>Trouble breathing for 3 days.</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>39-year-old female; Has dry skin, weight gain, and constipation; Feels very cold when others are hot.</t>
+          <t>27-year-old female; Recent cold; Wheezing and coughing when sitting; Trouble breathing when walking around house; Has asthma; Inhalers don't help her anymore.</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
@@ -2065,50 +2093,34 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G60" t="n">
-        <v>0.498403563023434</v>
+        <v>0.4330244428115835</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>42-year-old female; Overweight; Falls asleep during the day ; Partner complains about snoring at night.</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="n"/>
+      <c r="D61" s="1" t="n"/>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>0.5673102585940522</v>
+        <v>0.5715979359237082</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Trouble breathing for 3 days.</t>
-        </is>
-      </c>
+      <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>27-year-old female; Recent cold; Wheezing and coughing when sitting; Trouble breathing when walking around house; Has asthma; Inhalers don't help her anymore.</t>
+          <t>27-year-old female; Recent cold; Wheezing and coughing, especially at night; Has asthma; Inhalers only help for a couple of hours.</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr">
@@ -2127,205 +2139,209 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4793180215862139</v>
+        <v>0.4634257324387222</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
-      <c r="B63" s="1" t="inlineStr">
-        <is>
-          <t>27-year-old female; Recent cold; Wheezing and coughing, especially at night; Has asthma; Inhalers only help for a couple of hours.</t>
-        </is>
-      </c>
-      <c r="C63" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D63" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="n"/>
+      <c r="D63" s="1" t="n"/>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4564463613404325</v>
+        <v>0.5316809102205031</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
-      <c r="B64" s="1" t="n"/>
-      <c r="C64" s="1" t="n"/>
-      <c r="D64" s="1" t="n"/>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>67-year-old female; Has lung disease and smoked cigarettes; Increased cough with green phlegm; Can't speak in complete sentences.</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F64" t="n">
         <v>5</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4789997356818889</v>
+        <v>0.4136540754975933</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="inlineStr">
-        <is>
-          <t>67-year-old female; Has lung disease and smoked cigarettes; Increased cough with green phlegm; Can't speak in complete sentences.</t>
-        </is>
-      </c>
-      <c r="C65" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D65" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
+      <c r="D65" s="1" t="n"/>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>0.3799085854353043</v>
+        <v>0.6499372091524572</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
-      <c r="B66" s="1" t="n"/>
-      <c r="C66" s="1" t="n"/>
-      <c r="D66" s="1" t="n"/>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>67-year-old female; Has lung disease and smoked cigarettes; Increased cough with green phlegm; Using inhaler every 6 hours.</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4242050988001819</v>
+        <v>0.5252563980354229</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="inlineStr">
-        <is>
-          <t>67-year-old female; Has lung disease and smoked cigarettes; Increased cough with green phlegm; Using inhaler every 6 hours.</t>
-        </is>
-      </c>
-      <c r="C67" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D67" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="n"/>
       <c r="E67" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G67" t="n">
-        <v>0.4675411400895128</v>
+        <v>0.5176038971758673</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="n"/>
-      <c r="C68" s="1" t="n"/>
-      <c r="D68" s="1" t="n"/>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>78-year-old female; Ate very salty foods recently; Gaining weight and legs are swollen; Had a heart attack several years ago; Trouble breathing when sitting on the couch; .</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G68" t="n">
-        <v>0.6414335838924656</v>
+        <v>0.467469913016049</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="inlineStr">
-        <is>
-          <t>78-year-old female; Ate very salty foods recently; Gaining weight and legs are swollen; Had a heart attack several years ago; Trouble breathing when sitting on the couch; .</t>
-        </is>
-      </c>
-      <c r="C69" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D69" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="1" t="n"/>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4223277548517389</v>
+        <v>0.5212613325169834</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n"/>
-      <c r="B70" s="1" t="n"/>
-      <c r="C70" s="1" t="n"/>
-      <c r="D70" s="1" t="n"/>
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Trouble breathing for 30 minutes.</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>65-year-old male; Has chest pain that worsens when he takes a breath; Had surgery last week; Has swelling and pain in his left calf.</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
       <c r="E70" s="1" t="inlineStr">
         <is>
           <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4343399421803382</v>
+        <v>0.7826728144423504</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Trouble breathing for 30 minutes.</t>
+          <t>Trouble breathing for 7 days.</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>65-year-old male; Has chest pain that worsens when he takes a breath; Had surgery last week; Has swelling and pain in his left calf.</t>
+          <t>78-year-old female; Slowly gaining weight; Had a heart attack several years ago; Comfortable when sitting or walking slowly, but has trouble when walking up stairs.</t>
         </is>
       </c>
       <c r="C71" s="1" t="inlineStr">
@@ -2335,52 +2351,36 @@
       </c>
       <c r="D71" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4762265995466939</v>
+        <v>0.5616047282379284</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Trouble breathing for 7 days.</t>
-        </is>
-      </c>
-      <c r="B72" s="1" t="inlineStr">
-        <is>
-          <t>78-year-old female; Slowly gaining weight; Had a heart attack several years ago; Comfortable when sitting or walking slowly, but has trouble when walking up stairs.</t>
-        </is>
-      </c>
-      <c r="C72" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D72" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="n"/>
+      <c r="C72" s="1" t="n"/>
+      <c r="D72" s="1" t="n"/>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5400412130106808</v>
+        <v>0.4261682084072416</v>
       </c>
     </row>
     <row r="73">
@@ -2413,7 +2413,7 @@
         <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>0.6174797059780062</v>
+        <v>0.6611188839464232</v>
       </c>
     </row>
     <row r="74">
@@ -2442,7 +2442,7 @@
         <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5970768845721917</v>
+        <v>0.6545729162952478</v>
       </c>
     </row>
     <row r="75">
@@ -2468,87 +2468,70 @@
       </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3874815353630751</v>
+        <v>0.5692285864697295</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n"/>
-      <c r="B76" s="1" t="n"/>
-      <c r="C76" s="1" t="n"/>
-      <c r="D76" s="1" t="n"/>
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>White stuff coming out of vagina for 2 days.</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>40-year-old female; Vagina also itchy; Doesn't hurt to pee; No abdominal pain; No fever.</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
       <c r="E76" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4436077067272421</v>
+        <v>0.4071250379492938</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>White stuff coming out of vagina for 2 days.</t>
-        </is>
-      </c>
-      <c r="B77" s="1" t="inlineStr">
-        <is>
-          <t>40-year-old female; Vagina also itchy; Doesn't hurt to pee; No abdominal pain; No fever.</t>
-        </is>
-      </c>
-      <c r="C77" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D77" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="n"/>
+      <c r="D77" s="1" t="n"/>
       <c r="E77" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4681692249686904</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n"/>
-      <c r="B78" s="1" t="n"/>
-      <c r="C78" s="1" t="n"/>
-      <c r="D78" s="1" t="n"/>
-      <c r="E78" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.4507999225149319</v>
+        <v>0.4471378167946704</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="115">
+  <mergeCells count="109">
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
@@ -2558,25 +2541,22 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A70"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A71:A72"/>
     <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A76:A77"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
@@ -2586,26 +2566,25 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B76:B77"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
@@ -2615,26 +2594,25 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C76:C77"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
@@ -2644,24 +2622,23 @@
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D76:D77"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/processed/vignettes20_triage_prediction_agg_dichotomized.xlsx
+++ b/data/processed/vignettes20_triage_prediction_agg_dichotomized.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,154 +519,138 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7580076270745105</v>
+        <v>0.6987234736903108</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3493839884316203</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Belly pain and diarrhea for 7 days.</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>4-year-old male; Nothing unusual in diet though did have a hamburger at a cookout 3 days before pain started; Has fever; Diarrhea may have blood in it.</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.3815042693844805</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5000162689902918</v>
+        <v>0.4198816079218219</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>28</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7403357731954993</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Blood on toilet paper for 1 week.</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>68-year-old female; Stool is hard and must strain when using the bathroom; No weight loss, belly pain, or fever; Stool is not red or black.</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.5164921830047519</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n"/>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4102009530367572</v>
+        <v>0.6136323696623749</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Chest pain for 1 day.</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>64-year-old male; Pain is in middle of chest under breast bone; Sweating and having trouble breathing.</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="inlineStr">
         <is>
           <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7762009665746792</v>
+        <v>0.3558768701960698</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Confused and sleepy for several hours.</t>
+          <t>Chest pain for 1 day.</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>48-year-old female; Can't answer where she is or what her name is (but she normally can); Takes Tylenol all the time for migraine, but recently took more.</t>
+          <t>64-year-old male; Pain is in middle of chest under breast bone; Sweating and having trouble breathing.</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -685,10 +669,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2879020963987001</v>
+        <v>0.3256932979453618</v>
       </c>
     </row>
     <row r="9">
@@ -702,21 +686,21 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4337188429658881</v>
+        <v>0.8774505407151345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Congestion for many years.</t>
+          <t>Confused and sleepy for several hours.</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>22-year-old male; Worse during spring season; Has sneezing and nose itching; Has eye itching and tearing.</t>
+          <t>48-year-old female; Can't answer where she is or what her name is (but she normally can); Takes Tylenol all the time for migraine, but recently took more.</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -726,7 +710,7 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
@@ -735,10 +719,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4936634740180539</v>
+        <v>0.3181366762418006</v>
       </c>
     </row>
     <row r="11">
@@ -752,21 +736,21 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G11" t="n">
-        <v>0.394642964963816</v>
+        <v>0.6971168366507927</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cough and fever for 3 days.</t>
+          <t>Congestion for many years.</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>65-year-old male; Cough brings up green phlegm; Breathing fast and shallow.</t>
+          <t>22-year-old male; Worse during spring season; Has sneezing and nose itching; Has eye itching and tearing.</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -776,7 +760,7 @@
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
@@ -785,10 +769,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3949638812006547</v>
+        <v>0.5435725912705407</v>
       </c>
     </row>
     <row r="13">
@@ -802,21 +786,21 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4788082868928479</v>
+        <v>0.3873991827208856</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Dry itchy skin in front of elbows and behind knees for years.</t>
+          <t>Cough and fever for 3 days.</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>12-year-old female; Brother has asthma; Recently told she has egg and milk allergies.</t>
+          <t>65-year-old male; Cough brings up green phlegm; Breathing fast and shallow.</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -826,7 +810,7 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
@@ -835,10 +819,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5236708145010497</v>
+        <v>0.4179111349544726</v>
       </c>
     </row>
     <row r="15">
@@ -852,237 +836,221 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2740266570013977</v>
+        <v>0.7367106040573631</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>Dry itchy skin in front of elbows and behind knees for years.</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>12-year-old female; Brother has asthma; Recently told she has egg and milk allergies.</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>43</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5115876013321204</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3371218217876076</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
           <t>Feeling down for weeks.</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>32-year-old male; Wakes up early and cannot go back to sleep; Having difficulty concentrating at work; Cannot seem to stop worrying about his family.</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>43</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6116694495762003</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3130480953141861</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Feels congested and face pain for 15 days.</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>35-year-old female; Has green nose discharge; Has a fever again after thinking she was getting better.</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>36</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5593224318669147</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>11</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5425492550772029</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Fever and chills for 5 days.</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>18-year-old male; Has fever of 103.1F; Recently returned from Africa.</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
         <v>10</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.474962421629355</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Feels congested and face pain for 15 days.</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>35-year-old female; Has green nose discharge; Has a fever again after thinking she was getting better.</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.638399133100143</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="n"/>
-      <c r="D18" s="1" t="n"/>
-      <c r="E18" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.4121134769772234</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Fever and chills for 5 days.</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>18-year-old male; Has fever of 103.1F; Recently returned from Africa.</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="E19" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.3482904428216729</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
-      <c r="D20" s="1" t="n"/>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.5541080956331033</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Fever and rash for 2 days.</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>8-year-old male; Rash is worse on the ankles and wrists; Has joint pain and headache; Was camping recently.</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="E21" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.4896774040990868</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
-      <c r="D22" s="1" t="n"/>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
-      </c>
       <c r="G22" t="n">
-        <v>0.5704210471539286</v>
+        <v>0.3666769209216858</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Fever and sore throat for 2 hours.</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>7-year-old female; White stuff in back of throat; Painful front of the neck; No cough, no congestion; Temperature 102.</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="n"/>
       <c r="E23" s="1" t="inlineStr">
         <is>
           <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6383119588063664</v>
+        <v>0.79219346049522</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Fever, headache, and cough for 4 days.</t>
+          <t>Fever and rash for 2 days.</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>30-year-old female; Came on very suddenly; Feels weak all over; Temperature 102.5 at first, but not now.</t>
+          <t>8-year-old male; Rash is worse on the ankles and wrists; Has joint pain and headache; Was camping recently.</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -1092,7 +1060,7 @@
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
@@ -1101,10 +1069,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6150877025477568</v>
+        <v>0.4877412957111703</v>
       </c>
     </row>
     <row r="25">
@@ -1118,26 +1086,26 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5879773352100301</v>
+        <v>0.5765227016880905</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Fever, sore throat, enlarged lymph nodes for one week.</t>
+          <t>Fever and sore throat for 2 hours.</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>16-year-old female; Trouble swallowing ; Extremely tired.</t>
+          <t>7-year-old female; White stuff in back of throat; Painful front of the neck; No cough, no congestion; Temperature 102.</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
@@ -1151,10 +1119,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5623018373790112</v>
+        <v>0.3402021552476584</v>
       </c>
     </row>
     <row r="27">
@@ -1168,187 +1136,171 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5090152670892498</v>
+        <v>0.4560520104524437</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
+          <t>Fever, headache, and cough for 4 days.</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>30-year-old female; Came on very suddenly; Feels weak all over; Temperature 102.5 at first, but not now.</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>28</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.4512321070051566</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>19</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5271894055560198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Fever, sore throat, enlarged lymph nodes for one week.</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>16-year-old female; Trouble swallowing ; Extremely tired.</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>27</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.6069351228949174</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>20</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.6437837057411386</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
           <t>Front of left leg is red and hurts for one day.</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>45-year-old man; Redness started quickly over a day; He thinks he has a high temperature, but he didn't check; Leg is swollen; Leg hurts to touch it, but he didn't cut it or bump it that he remembers.</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.5537387794106072</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Headache for 3 days.</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>18-year-old male; Has fever 102; Neck stiff; Light bothers him.</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.4527588400859487</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="n"/>
-      <c r="D30" s="1" t="n"/>
-      <c r="E30" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.4279004159092213</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Itchy rash on left hand for 1 day.</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>12-year-old male; Came on hours after playing in woods; Rash red and warm; No fever.</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="E31" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.5423958831471319</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
-      <c r="D32" s="1" t="n"/>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6314309414291884</v>
+        <v>0.3350329647601092</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Left knee pain for 4 months.</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>62-year-old male; Worse after walking, better when resting; Sometimes swells up; Never hit knee against anything or fell.</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
+      <c r="D33" s="1" t="n"/>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7127945270341788</v>
+        <v>0.4571247877885076</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Left-sided pain between armpit and hip for 1 hour.</t>
+          <t>Headache for 3 days.</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>45-year-old male; Severe pain; Pain starts on left side and travels to groin; Has nausea and vomiting; Squirming in pain.</t>
+          <t>18-year-old male; Has fever 102; Neck stiff; Light bothers him.</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
@@ -1363,251 +1315,235 @@
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7384428142999222</v>
+        <v>0.4530731537695046</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Mouth sores that come back over several years.</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>17-year-old male; Has 5 of them in his mouth; No other sores anywhere else; Takes no drugs or medicines.</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="1" t="n"/>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5460140529094435</v>
+        <v>0.6506009122934667</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="n"/>
-      <c r="C36" s="1" t="n"/>
-      <c r="D36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Itchy rash on left hand for 1 day.</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>12-year-old male; Came on hours after playing in woods; Rash red and warm; No fever.</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3824657825764592</v>
+        <v>0.5155614143701058</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Pain on right side of chest for 5 days.</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>77-year-old male; Pain was first and was then followed by rash in same area as pain; Feels unwell in general; Rash becomes clear pockets of fluid on top of skin after 3 days.</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="n"/>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3857600394445489</v>
+        <v>0.4612891913285623</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="n"/>
-      <c r="D38" s="1" t="n"/>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Left knee pain for 4 months.</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>62-year-old male; Worse after walking, better when resting; Sometimes swells up; Never hit knee against anything or fell.</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>0.496193017814724</v>
+        <v>0.5351390160595404</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Painful muscle spasms for 1 day.</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>65-year-old male; Having a hard time opening his mouth; Cut himself while gardening; He is restless and irritable.</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="n"/>
       <c r="E39" s="1" t="inlineStr">
         <is>
           <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6109300864320387</v>
+        <v>0.4907383686738181</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Painful swollen right eyelid for 1 day.</t>
+          <t>Left-sided pain between armpit and hip for 1 hour.</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>30-year-old male; Pain is at edge of eyelid; Hurts to touch it; No change in vision.</t>
+          <t>45-year-old male; Severe pain; Pain starts on left side and travels to groin; Has nausea and vomiting; Squirming in pain.</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6274842312916584</v>
+        <v>0.2814060603702031</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>Painful urination for 2 days.</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>26-year-old female; Has urgent need to pee; Recent sexual activity; No fever, but some back pain; .</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="n"/>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4683114110755373</v>
+        <v>0.8236579667810203</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n"/>
-      <c r="D42" s="1" t="n"/>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Mouth sores that come back over several years.</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>17-year-old male; Has 5 of them in his mouth; No other sores anywhere else; Takes no drugs or medicines.</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4728756249187478</v>
+        <v>0.610350152668058</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Red bumps on forehead for 4 weeks.</t>
+          <t>Pain on right side of chest for 5 days.</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>17-year-old male; Bumps come and go and then come in new places on face.</t>
+          <t>77-year-old male; Pain was first and was then followed by rash in same area as pain; Feels unwell in general; Rash becomes clear pockets of fluid on top of skin after 3 days.</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
@@ -1616,10 +1552,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3598015287349306</v>
+        <v>0.4063657082778239</v>
       </c>
     </row>
     <row r="44">
@@ -1633,147 +1569,131 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G44" t="n">
-        <v>0.402856121618987</v>
+        <v>0.6834551875228323</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Red, irritated eye for 3 days.</t>
+          <t>Painful muscle spasms for 1 day.</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>14-year-old male; Spread from right to left; Has watery eye discharge, but no pain; Has a stuffy nose.</t>
+          <t>65-year-old male; Having a hard time opening his mouth; Cut himself while gardening; He is restless and irritable.</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>23</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.3702813698792971</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>24</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.5521198856854966</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Painful swollen right eyelid for 1 day.</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>30-year-old male; Pain is at edge of eyelid; Hurts to touch it; No change in vision.</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>10</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.5862293940361207</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Right leg pain for 2 days.</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>65-year-old female; Right leg is swollen, red, and painful; Was in hospital last week for pneumonia; Has mild heart disease.</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="E46" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>8</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.5671067277648096</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="n"/>
-      <c r="D47" s="1" t="n"/>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4759882333939457</v>
+        <v>0.3924076693352768</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>Right-sided weakness and difficulty speaking for 10 minutes.</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>70-year-old male; Can't use his right arm; Has high blood pressure and abnormal heart rhythm; Has nausea and vomiting.</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="n"/>
       <c r="E48" s="1" t="inlineStr">
         <is>
           <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8626213453058705</v>
+        <v>0.4451898060418097</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Runny nose for 12 days.</t>
+          <t>Painful urination for 2 days.</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>34-year-old female; No fever; Had also had a sore throat and cough; No other medical problems.</t>
+          <t>26-year-old female; Has urgent need to pee; Recent sexual activity; No fever, but some back pain; .</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
@@ -1782,10 +1702,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5939419106322285</v>
+        <v>0.4644527149570636</v>
       </c>
     </row>
     <row r="50">
@@ -1799,26 +1719,26 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5710760485470909</v>
+        <v>0.5193212172338808</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Sore throat for 2 days.</t>
+          <t>Red bumps on forehead for 4 weeks.</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>26-year-old male; Has a headache; Has a cough; No fever.</t>
+          <t>17-year-old male; Bumps come and go and then come in new places on face.</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D51" s="1" t="inlineStr">
@@ -1832,10 +1752,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4372276683876214</v>
+        <v>0.5454937931060092</v>
       </c>
     </row>
     <row r="52">
@@ -1849,21 +1769,21 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>0.6430374822565895</v>
+        <v>0.3846277387785827</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Sudden episodes of dizziness for 1 month.</t>
+          <t>Red, irritated eye for 3 days.</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>65-year-old female; Triggered by tilting her head back to look up; Each attack lasts about 30 seconds; No hearing problems or weakness.</t>
+          <t>14-year-old male; Spread from right to left; Has watery eye discharge, but no pain; Has a stuffy nose.</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
@@ -1882,54 +1802,38 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G53" t="n">
-        <v>0.6726463890388618</v>
+        <v>0.4274382813372729</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Sudden severe abdominal pain.</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>12-year-old female; Temperature 104 F (40 C); Has nausea, vomiting, and diarrhea.</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n"/>
+      <c r="D54" s="1" t="n"/>
       <c r="E54" s="1" t="inlineStr">
         <is>
           <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9066001325464063</v>
+        <v>0.4249612312194531</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Swollen and tender forehead at site of bee sting for 1 hour.</t>
+          <t>Right leg pain for 2 days.</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>9-year-old male; Stopped crying after 15 minutes; Tongue looks normal; No wheezing or breathing problems.</t>
+          <t>65-year-old female; Right leg is swollen, red, and painful; Was in hospital last week for pneumonia; Has mild heart disease.</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr">
@@ -1939,63 +1843,47 @@
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G55" t="n">
-        <v>0.6734699483680924</v>
+        <v>0.5586659829249747</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Thirsty and peeing a lot for 4 weeks.</t>
-        </is>
-      </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>52-year-old male; Feels tired all the time; Has blurry vision on and off.</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="n"/>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5767399415904715</v>
+        <v>0.5505052388571221</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Tired for 2 months.</t>
+          <t>Right-sided weakness and difficulty speaking for 10 minutes.</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>39-year-old female; Has dry skin, weight gain, and constipation; Feels very cold when others are hot.</t>
+          <t>70-year-old male; Can't use his right arm; Has high blood pressure and abnormal heart rhythm; Has nausea and vomiting.</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
@@ -2005,7 +1893,7 @@
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
@@ -2014,10 +1902,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5736753027122087</v>
+        <v>0.3781015481901555</v>
       </c>
     </row>
     <row r="58">
@@ -2031,17 +1919,21 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G58" t="n">
-        <v>0.3871165672274873</v>
+        <v>0.8593817895635729</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n"/>
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Runny nose for 12 days.</t>
+        </is>
+      </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>42-year-old female; Overweight; Falls asleep during the day ; Partner complains about snoring at night.</t>
+          <t>34-year-old female; No fever; Had also had a sore throat and cough; No other medical problems.</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr">
@@ -2060,288 +1952,288 @@
         </is>
       </c>
       <c r="F59" t="n">
+        <v>37</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.6180326863563594</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n"/>
+      <c r="C60" s="1" t="n"/>
+      <c r="D60" s="1" t="n"/>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
         <v>10</v>
       </c>
-      <c r="G59" t="n">
-        <v>0.5779356764064599</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Trouble breathing for 3 days.</t>
-        </is>
-      </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>27-year-old female; Recent cold; Wheezing and coughing when sitting; Trouble breathing when walking around house; Has asthma; Inhalers don't help her anymore.</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
-      <c r="E60" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>6</v>
-      </c>
       <c r="G60" t="n">
-        <v>0.4330244428115835</v>
+        <v>0.5487662698144578</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="n"/>
-      <c r="C61" s="1" t="n"/>
-      <c r="D61" s="1" t="n"/>
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Sore throat for 2 days.</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>26-year-old male; Has a headache; Has a cough; No fever.</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G61" t="n">
-        <v>0.5715979359237082</v>
+        <v>0.5196118676232299</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>27-year-old female; Recent cold; Wheezing and coughing, especially at night; Has asthma; Inhalers only help for a couple of hours.</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="1" t="n"/>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4634257324387222</v>
+        <v>0.4658105061024954</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n"/>
-      <c r="B63" s="1" t="n"/>
-      <c r="C63" s="1" t="n"/>
-      <c r="D63" s="1" t="n"/>
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Sudden episodes of dizziness for 1 month.</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>65-year-old female; Triggered by tilting her head back to look up; Each attack lasts about 30 seconds; No hearing problems or weakness.</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5316809102205031</v>
+        <v>0.5053578634102444</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
-      <c r="B64" s="1" t="inlineStr">
-        <is>
-          <t>67-year-old female; Has lung disease and smoked cigarettes; Increased cough with green phlegm; Can't speak in complete sentences.</t>
-        </is>
-      </c>
-      <c r="C64" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D64" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
+      <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="n"/>
+      <c r="D64" s="1" t="n"/>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4136540754975933</v>
+        <v>0.4875881382032946</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="n"/>
-      <c r="C65" s="1" t="n"/>
-      <c r="D65" s="1" t="n"/>
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Sudden severe abdominal pain.</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>12-year-old female; Temperature 104 F (40 C); Has nausea, vomiting, and diarrhea.</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6499372091524572</v>
+        <v>0.2434686895927663</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
-      <c r="B66" s="1" t="inlineStr">
-        <is>
-          <t>67-year-old female; Has lung disease and smoked cigarettes; Increased cough with green phlegm; Using inhaler every 6 hours.</t>
-        </is>
-      </c>
-      <c r="C66" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D66" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
+      <c r="B66" s="1" t="n"/>
+      <c r="C66" s="1" t="n"/>
+      <c r="D66" s="1" t="n"/>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5252563980354229</v>
+        <v>0.8669851827529715</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="n"/>
-      <c r="C67" s="1" t="n"/>
-      <c r="D67" s="1" t="n"/>
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Swollen and tender forehead at site of bee sting for 1 hour.</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>9-year-old male; Stopped crying after 15 minutes; Tongue looks normal; No wheezing or breathing problems.</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
       <c r="E67" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5176038971758673</v>
+        <v>0.3972554334792746</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="inlineStr">
-        <is>
-          <t>78-year-old female; Ate very salty foods recently; Gaining weight and legs are swollen; Had a heart attack several years ago; Trouble breathing when sitting on the couch; .</t>
-        </is>
-      </c>
-      <c r="C68" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D68" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="1" t="n"/>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G68" t="n">
-        <v>0.467469913016049</v>
+        <v>0.3902973403104857</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="n"/>
-      <c r="C69" s="1" t="n"/>
-      <c r="D69" s="1" t="n"/>
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Thirsty and peeing a lot for 4 weeks.</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>52-year-old male; Feels tired all the time; Has blurry vision on and off.</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5212613325169834</v>
+        <v>0.5530107131708034</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Trouble breathing for 30 minutes.</t>
-        </is>
-      </c>
-      <c r="B70" s="1" t="inlineStr">
-        <is>
-          <t>65-year-old male; Has chest pain that worsens when he takes a breath; Had surgery last week; Has swelling and pain in his left calf.</t>
-        </is>
-      </c>
-      <c r="C70" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D70" s="1" t="inlineStr">
-        <is>
-          <t>Emergent/1-day</t>
-        </is>
-      </c>
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="1" t="n"/>
       <c r="E70" s="1" t="inlineStr">
         <is>
           <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G70" t="n">
-        <v>0.7826728144423504</v>
+        <v>0.4914881260775728</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Trouble breathing for 7 days.</t>
+          <t>Tired for 2 months.</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>78-year-old female; Slowly gaining weight; Had a heart attack several years ago; Comfortable when sitting or walking slowly, but has trouble when walking up stairs.</t>
+          <t>39-year-old female; Has dry skin, weight gain, and constipation; Feels very cold when others are hot.</t>
         </is>
       </c>
       <c r="C71" s="1" t="inlineStr">
@@ -2360,10 +2252,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5616047282379284</v>
+        <v>0.553674848867579</v>
       </c>
     </row>
     <row r="72">
@@ -2377,21 +2269,17 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G72" t="n">
-        <v>0.4261682084072416</v>
+        <v>0.3257819333052304</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Upper abdominal pain for 2 months.</t>
-        </is>
-      </c>
+      <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>40-year-old male; Feels like a dull, gnawing ache; Wakes him up at night; Better when drinking milk and eating.</t>
+          <t>42-year-old female; Overweight; Falls asleep during the day ; Partner complains about snoring at night.</t>
         </is>
       </c>
       <c r="C73" s="1" t="inlineStr">
@@ -2410,50 +2298,38 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="G73" t="n">
-        <v>0.6611188839464232</v>
+        <v>0.5522003833023068</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
-      <c r="B74" s="1" t="inlineStr">
-        <is>
-          <t>40-year-old male; Worse with spicy and fried foods; Worse if he eats late at night before sleeping; Voice is becoming hoarse; .</t>
-        </is>
-      </c>
-      <c r="C74" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D74" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
+      <c r="D74" s="1" t="n"/>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6545729162952478</v>
+        <v>0.4101695217725859</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Vomiting, diarrhea, and belly pain for 18 hours.</t>
+          <t>Trouble breathing for 3 days.</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>14-year-old male; Had diarrhea 10 times in 18 hours; No blood in diarrhea; Has temperature of 103.1F; Attended a picnic recently and ate undercooked chicken.</t>
+          <t>27-year-old female; Recent cold; Wheezing and coughing when sitting; Trouble breathing when walking around house; Has asthma; Inhalers don't help her anymore.</t>
         </is>
       </c>
       <c r="C75" s="1" t="inlineStr">
@@ -2468,177 +2344,697 @@
       </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5692285864697295</v>
+        <v>0.4820660481913578</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>White stuff coming out of vagina for 2 days.</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="inlineStr">
-        <is>
-          <t>40-year-old female; Vagina also itchy; Doesn't hurt to pee; No abdominal pain; No fever.</t>
-        </is>
-      </c>
-      <c r="C76" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D76" s="1" t="inlineStr">
-        <is>
-          <t>1-week/Self-care</t>
-        </is>
-      </c>
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
+      <c r="D76" s="1" t="n"/>
       <c r="E76" s="1" t="inlineStr">
         <is>
-          <t>1-week/Self-care</t>
+          <t>Emergent/1-day</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4071250379492938</v>
+        <v>0.7580871768850814</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
-      <c r="B77" s="1" t="n"/>
-      <c r="C77" s="1" t="n"/>
-      <c r="D77" s="1" t="n"/>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>27-year-old female; Recent cold; Wheezing and coughing, especially at night; Has asthma; Inhalers only help for a couple of hours.</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
       <c r="E77" s="1" t="inlineStr">
         <is>
-          <t>Emergent/1-day</t>
+          <t>1-week/Self-care</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4471378167946704</v>
+        <v>0.5282489713734975</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n"/>
+      <c r="C78" s="1" t="n"/>
+      <c r="D78" s="1" t="n"/>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>32</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.7190525711116009</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>67-year-old female; Has lung disease and smoked cigarettes; Increased cough with green phlegm; Can't speak in complete sentences.</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>11</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.4041383307867903</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n"/>
+      <c r="C80" s="1" t="n"/>
+      <c r="D80" s="1" t="n"/>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>36</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.86420889423265</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>67-year-old female; Has lung disease and smoked cigarettes; Increased cough with green phlegm; Using inhaler every 6 hours.</t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>21</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.4931605207005487</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n"/>
+      <c r="C82" s="1" t="n"/>
+      <c r="D82" s="1" t="n"/>
+      <c r="E82" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>26</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.6958555532383964</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>78-year-old female; Ate very salty foods recently; Gaining weight and legs are swollen; Had a heart attack several years ago; Trouble breathing when sitting on the couch; .</t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>14</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.4054564749187942</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n"/>
+      <c r="C84" s="1" t="n"/>
+      <c r="D84" s="1" t="n"/>
+      <c r="E84" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>33</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.7439711174490432</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Trouble breathing for 30 minutes.</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>65-year-old male; Has chest pain that worsens when he takes a breath; Had surgery last week; Has swelling and pain in his left calf.</t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="E85" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>7</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.2819097011452482</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n"/>
+      <c r="C86" s="1" t="n"/>
+      <c r="D86" s="1" t="n"/>
+      <c r="E86" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>40</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.8550053797082438</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Trouble breathing for 7 days.</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>78-year-old female; Slowly gaining weight; Had a heart attack several years ago; Comfortable when sitting or walking slowly, but has trouble when walking up stairs.</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>21</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.5408106011374814</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n"/>
+      <c r="C88" s="1" t="n"/>
+      <c r="D88" s="1" t="n"/>
+      <c r="E88" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>26</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.6944133925421518</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Upper abdominal pain for 2 months.</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>40-year-old male; Feels like a dull, gnawing ache; Wakes him up at night; Better when drinking milk and eating.</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>41</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.552947771171419</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n"/>
+      <c r="C90" s="1" t="n"/>
+      <c r="D90" s="1" t="n"/>
+      <c r="E90" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>6</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.4207664641388763</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>40-year-old male; Worse with spicy and fried foods; Worse if he eats late at night before sleeping; Voice is becoming hoarse; .</t>
+        </is>
+      </c>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>27</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.5303441676292556</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="n"/>
+      <c r="C92" s="1" t="n"/>
+      <c r="D92" s="1" t="n"/>
+      <c r="E92" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>20</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.5718162831205199</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Vomiting, diarrhea, and belly pain for 18 hours.</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>14-year-old male; Had diarrhea 10 times in 18 hours; No blood in diarrhea; Has temperature of 103.1F; Attended a picnic recently and ate undercooked chicken.</t>
+        </is>
+      </c>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>16</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.3435054435254569</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="n"/>
+      <c r="C94" s="1" t="n"/>
+      <c r="D94" s="1" t="n"/>
+      <c r="E94" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>31</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.6998068204252754</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>White stuff coming out of vagina for 2 days.</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>40-year-old female; Vagina also itchy; Doesn't hurt to pee; No abdominal pain; No fever.</t>
+        </is>
+      </c>
+      <c r="C95" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D95" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="inlineStr">
+        <is>
+          <t>1-week/Self-care</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>43</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.50410917014467</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="n"/>
+      <c r="C96" s="1" t="n"/>
+      <c r="D96" s="1" t="n"/>
+      <c r="E96" s="1" t="inlineStr">
+        <is>
+          <t>Emergent/1-day</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>4</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.3704145264176295</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
+  <mergeCells count="182">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A69"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A75:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
     <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
     <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
     <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
     <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
     <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
     <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
     <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
     <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="D95:D96"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/processed/vignettes20_triage_prediction_agg_dichotomized.xlsx
+++ b/data/processed/vignettes20_triage_prediction_agg_dichotomized.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -522,7 +521,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7580076270745105</v>
+        <v>0.7580076270745104</v>
       </c>
     </row>
     <row r="3">
@@ -921,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>0.638399133100143</v>
+        <v>0.6383991331001428</v>
       </c>
     </row>
     <row r="18">
@@ -988,7 +987,7 @@
         <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5541080956331033</v>
+        <v>0.5541080956331034</v>
       </c>
     </row>
     <row r="21">
@@ -1204,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5537387794106072</v>
+        <v>0.5537387794106073</v>
       </c>
     </row>
     <row r="29">
@@ -1254,7 +1253,7 @@
         <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4279004159092213</v>
+        <v>0.4279004159092212</v>
       </c>
     </row>
     <row r="31">
@@ -1304,7 +1303,7 @@
         <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6314309414291884</v>
+        <v>0.6314309414291885</v>
       </c>
     </row>
     <row r="33">
@@ -1370,7 +1369,7 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7384428142999222</v>
+        <v>0.7384428142999221</v>
       </c>
     </row>
     <row r="35">
@@ -1503,7 +1502,7 @@
         <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6109300864320387</v>
+        <v>0.6109300864320386</v>
       </c>
     </row>
     <row r="40">
@@ -1984,7 +1983,7 @@
         <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5767399415904715</v>
+        <v>0.5767399415904714</v>
       </c>
     </row>
     <row r="57">
@@ -2063,7 +2062,7 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5779356764064599</v>
+        <v>0.5779356764064598</v>
       </c>
     </row>
     <row r="60">
@@ -2205,7 +2204,7 @@
         <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6499372091524572</v>
+        <v>0.6499372091524573</v>
       </c>
     </row>
     <row r="66">
@@ -2297,7 +2296,7 @@
         <v>5</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5212613325169834</v>
+        <v>0.5212613325169835</v>
       </c>
     </row>
     <row r="70">
@@ -2363,7 +2362,7 @@
         <v>7</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5616047282379284</v>
+        <v>0.5616047282379283</v>
       </c>
     </row>
     <row r="72">
@@ -2413,7 +2412,7 @@
         <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>0.6611188839464232</v>
+        <v>0.661118883946423</v>
       </c>
     </row>
     <row r="74">
